--- a/data/trans_dic/P1438_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1438_2023-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.09746331510553648</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1781309141693202</v>
+        <v>0.1781309141693201</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1448597446227445</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07713885457814733</v>
+        <v>0.0771757996350486</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1594511242729835</v>
+        <v>0.1593185416251933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1309521770628404</v>
+        <v>0.1300877653913291</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1180850133040615</v>
+        <v>0.1214028825063211</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1980378620307739</v>
+        <v>0.1985427493258324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1619635883942948</v>
+        <v>0.1611167916466872</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.06468301519246435</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05254644939543748</v>
+        <v>0.05254644939543749</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03354491150255481</v>
+        <v>0.03328446246395142</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05683681422605796</v>
+        <v>0.05690501933893725</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04696111646833882</v>
+        <v>0.04630940600086382</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04918205676006933</v>
+        <v>0.04936130990825206</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07381904860949934</v>
+        <v>0.07362774206496833</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05881253816307679</v>
+        <v>0.05907278519724735</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01470019371128666</v>
+        <v>0.01381039715898445</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03080247775955933</v>
+        <v>0.02880017150621221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02480459962219412</v>
+        <v>0.02467223678569071</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03802476319236064</v>
+        <v>0.03660999910980952</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05581127087230765</v>
+        <v>0.05467319592071748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0418378449011666</v>
+        <v>0.04233322873121115</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04655416927090484</v>
+        <v>0.04655416927090485</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.08495045687523885</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04030121510286008</v>
+        <v>0.04017141648591784</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07822034046215078</v>
+        <v>0.07819791841292127</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0615152020167922</v>
+        <v>0.06172910160313788</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05334047853913867</v>
+        <v>0.05365652467437124</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09232464361838942</v>
+        <v>0.09179530370882336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0714574966669458</v>
+        <v>0.07145151195009122</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44474</v>
+        <v>44495</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>130960</v>
+        <v>130851</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>183053</v>
+        <v>181844</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>68081</v>
+        <v>69994</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>162651</v>
+        <v>163066</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>226402</v>
+        <v>225219</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>74795</v>
+        <v>74214</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>123339</v>
+        <v>123487</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>206617</v>
+        <v>203750</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>109661</v>
+        <v>110061</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>160191</v>
+        <v>159776</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>258761</v>
+        <v>259906</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10448</v>
+        <v>9815</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22594</v>
+        <v>21126</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35824</v>
+        <v>35633</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27025</v>
+        <v>26019</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40939</v>
+        <v>40104</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60424</v>
+        <v>61139</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>141738</v>
+        <v>141281</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>291363</v>
+        <v>291279</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>445484</v>
+        <v>447033</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>187596</v>
+        <v>188708</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>343900</v>
+        <v>341928</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>517485</v>
+        <v>517441</v>
       </c>
     </row>
     <row r="20">
